--- a/data/income_statement/3digits/total/477_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/477_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>477-Retail sale of other goods in specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>477-Retail sale of other goods in specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>34343590.55301</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>34903007.30378</v>
+        <v>34906144.44915</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>44396826.67979</v>
+        <v>44403657.61856</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>50541707.86455</v>
+        <v>50566148.52023</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>56976681.43496001</v>
+        <v>57066350.84328</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>63966533.32207</v>
+        <v>64827900.44029</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>73997573.98323001</v>
+        <v>76622005.48536</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>84458342.54455</v>
+        <v>87319933.88585</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>105854251.27332</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>125087162.26337</v>
+        <v>125475042.23977</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>166183033.11504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>169001140.25951</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>155133220.63</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>32763898.57493</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>33122723.54896</v>
+        <v>33125855.16285</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>42161362.24834</v>
+        <v>42167167.97362</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>47786929.07148</v>
+        <v>47811111.64107</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>53547565.86149999</v>
+        <v>53631280.6783</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>60114779.28466</v>
+        <v>60909301.82696</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>69067605.34936999</v>
+        <v>71646029.02642</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>78236101.70977999</v>
+        <v>81009535.42644</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>96736954.42406002</v>
+        <v>96736954.42406</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>114216399.37011</v>
+        <v>114470271.68306</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>152448096.85432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>155178987.34722</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>141514525.6</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1194776.30219</v>
@@ -1034,76 +950,86 @@
         <v>1382614.44119</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1714108.44076</v>
+        <v>1715133.53477</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2165072.20675</v>
+        <v>2165156.18054</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2691518.25614</v>
+        <v>2693385.04543</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3058742.24097</v>
+        <v>3077209.63993</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3936440.92255</v>
+        <v>3964659.78021</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4972966.261669999</v>
+        <v>5031795.218200001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>7528609.45385</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8781156.121450001</v>
+        <v>8914222.49446</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11068380.85338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11135611.04092</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>10923066.834</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>384915.67589</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>397669.31363</v>
+        <v>397674.84511</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>521355.99069</v>
+        <v>521356.1101699999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>589706.58632</v>
+        <v>589880.69862</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>737597.31732</v>
+        <v>741685.1195499999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>793011.7964399998</v>
+        <v>841388.9734</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>993527.71131</v>
+        <v>1011316.67873</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1249274.5731</v>
+        <v>1278603.24121</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1588687.39541</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2089606.77181</v>
+        <v>2090548.06225</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2666555.40734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2686541.87137</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2695628.196</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6242383.65454</v>
@@ -1112,121 +1038,136 @@
         <v>2037629.70055</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2617858.23495</v>
+        <v>2617916.2342</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3101187.80792</v>
+        <v>3101516.80033</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3829416.13645</v>
+        <v>3836434.78601</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4514851.110269999</v>
+        <v>4683603.75591</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5069977.03486</v>
+        <v>5916479.827889999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6865528.441269999</v>
+        <v>7135831.047739999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>8371157.428590001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>10560804.90356</v>
+        <v>10561528.99874</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>28908638.60078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>29221838.25652</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>13769251.83</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5487149.52413</v>
+        <v>5487149.524129999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>1096673.75465</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1477288.00707</v>
+        <v>1477311.13307</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1787631.63501</v>
+        <v>1787960.62742</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2102079.27412</v>
+        <v>2104019.27468</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2499509.08359</v>
+        <v>2588361.6351</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3013197.02588</v>
+        <v>3215164.24356</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3748899.90766</v>
+        <v>3957692.07658</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>4682119.41298</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5949723.758170001</v>
+        <v>5950445.718339999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22627884.39452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22919602.33479</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>7818203.77</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>724247.2910699999</v>
+        <v>724247.29107</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>893364.6465599999</v>
+        <v>893364.64656</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1074175.8348</v>
+        <v>1074210.70805</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1246234.39363</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1647650.64685</v>
+        <v>1652729.29585</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1932052.79458</v>
+        <v>2011952.64241</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1959560.92147</v>
+        <v>2603984.98574</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2996030.37946</v>
+        <v>3057540.81701</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>3561550.1208</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4453832.55928</v>
+        <v>4453834.69429</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6087028.208739999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6108346.24393</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5788875.512</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>30986.83934</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>47591.29934</v>
+        <v>47591.29934000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>66394.39307999999</v>
@@ -1235,13 +1176,13 @@
         <v>67321.77928</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>79686.21547999998</v>
+        <v>79686.21548</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>83289.23209999999</v>
+        <v>83289.47840000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>97219.08751</v>
+        <v>97330.59859000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>120598.15415</v>
@@ -1253,91 +1194,106 @@
         <v>157248.58611</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>193725.99752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>193889.6778</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>162172.548</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>28101206.89847001</v>
+        <v>28101206.89847</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>32865377.60323</v>
+        <v>32868514.7486</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>41778968.44484</v>
+        <v>41785741.38436</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>47440520.05663001</v>
+        <v>47464631.7199</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>53147265.29851</v>
+        <v>53229916.05727001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>59451682.2118</v>
+        <v>60144296.68438</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>68927596.94836999</v>
+        <v>70705525.65747</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>77592814.10327999</v>
+        <v>80184102.83811</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>97483093.84472999</v>
+        <v>97483093.84473</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>114526357.35981</v>
+        <v>114913513.24103</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>137274394.51426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>139779302.00299</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>141363968.8</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>20639102.43711</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>23768777.86712</v>
+        <v>23771502.06372999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>29989334.40749</v>
+        <v>29994845.87694</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>34053133.50429</v>
+        <v>34074971.00268</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>37453943.08342</v>
+        <v>37515912.01635001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>40935666.88445</v>
+        <v>41367477.90881</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>47361668.71041</v>
+        <v>48434782.97868</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>53589987.45607001</v>
+        <v>55056870.29540001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>67720346.0006</v>
+        <v>67720346.00060001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>76616246.34468001</v>
+        <v>76976502.91894999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>92961328.78210001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>94642001.39695999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>101276651.78</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1351502.86582</v>
@@ -1346,115 +1302,130 @@
         <v>1422072.33999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1772678.58172</v>
+        <v>1774340.30785</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1875301.59691</v>
+        <v>1875800.3902</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2073147.32661</v>
+        <v>2074474.10522</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2123065.65012</v>
+        <v>2167885.34079</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1887019.00367</v>
+        <v>1967233.91026</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2359150.45797</v>
+        <v>2374441.56563</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3183792.22298</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3673963.53666</v>
+        <v>3814400.61455</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4959591.517299999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5037375.780350001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4911684.33</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>18808582.19722</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>21787342.94939</v>
+        <v>21790067.146</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>27637035.10701</v>
+        <v>27640884.85033</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>31520390.30299</v>
+        <v>31536536.67204</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>34714330.47019</v>
+        <v>34774209.56272</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>38168063.90603001</v>
+        <v>38505887.02377</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>44415865.49564</v>
+        <v>45386960.67689999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>49962912.90929999</v>
+        <v>51405233.12709</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>63228217.19075999</v>
+        <v>63228217.19076</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>71377538.26192001</v>
+        <v>71586283.44894001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>86541394.77722999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>88082429.74067</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>94834870.074</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>448880.38319</v>
+        <v>448880.3831900001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>520873.2397599999</v>
+        <v>520873.23976</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>524019.58928</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>593410.5864000001</v>
+        <v>598602.9224500001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>526468.6836999999</v>
+        <v>527173.15449</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>526919.68135</v>
+        <v>528193.38475</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>607881.12739</v>
+        <v>616614.0706900001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>692030.6998899998</v>
+        <v>700486.1875499999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1058142.06657</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1062386.42438</v>
+        <v>1073330.99552</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1236800.09028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1256966.73181</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1255538.774</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>30136.99088</v>
@@ -1466,112 +1437,127 @@
         <v>55601.12948</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>64031.01798999999</v>
+        <v>64031.01799</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>139996.60292</v>
+        <v>140055.19392</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>117617.64695</v>
+        <v>165512.1595</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>450903.08371</v>
+        <v>463974.32083</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>575893.38891</v>
+        <v>576709.41513</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>250194.52029</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>502358.12172</v>
+        <v>502487.8599399999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>223542.39729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>265229.14413</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>274558.602</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7462104.461360001</v>
+        <v>7462104.46136</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9096599.736109998</v>
+        <v>9097012.684869999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>11789634.03735</v>
+        <v>11790895.50742</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>13387386.55234</v>
+        <v>13389660.71722</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>15693322.21509</v>
+        <v>15714004.04092</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>18516015.32735</v>
+        <v>18776818.77557</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>21565928.23796</v>
+        <v>22270742.67879</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>24002826.64721</v>
+        <v>25127232.54271</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>29762747.84413</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>37910111.01513001</v>
+        <v>37937010.32208</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>44313065.73215999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>45137300.60603</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>40087317.02</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>6278993.951200001</v>
+        <v>6278993.951199999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>7440097.299860001</v>
+        <v>7440633.65512</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9570454.014489999</v>
+        <v>9571486.70435</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11350145.22186</v>
+        <v>11353156.30271</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13411235.09193</v>
+        <v>13433131.56871</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>15870565.74678</v>
+        <v>16152955.10837</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>18590147.00199</v>
+        <v>19293921.9718</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>21269934.37204</v>
+        <v>22121975.0867</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>25330176.27763</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>31488753.00997</v>
+        <v>31538927.40857</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>36863254.91929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37439819.61638001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>34723176.239</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>14098.17798</v>
@@ -1586,7 +1572,7 @@
         <v>48322.97267</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>52792.78789</v>
+        <v>52792.78789000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>60495.50523</v>
@@ -1595,178 +1581,203 @@
         <v>75240.29461</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>87698.38073999999</v>
+        <v>87921.69785</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>106215.92321</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>132950.74216</v>
+        <v>133419.58464</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>165965.04653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>155309.82977</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>197218.501</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3742577.05338</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4632570.42237</v>
+        <v>4633033.02023</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6198911.617260001</v>
+        <v>6199534.449219999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7526531.81612</v>
+        <v>7528613.18724</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9154289.967559999</v>
+        <v>9171231.806299999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>11003259.89842</v>
+        <v>11231577.9983</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>13158374.51693</v>
+        <v>13721673.56334</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>15339735.70427</v>
+        <v>15963405.35364</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>18335719.89175</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>23356500.40645</v>
+        <v>23366565.49996</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27322278.53533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27666262.46003</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>25483474.203</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2522318.719839999</v>
+        <v>2522318.71984</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2786586.89289</v>
+        <v>2786660.65029</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3333519.044309999</v>
+        <v>3333928.90221</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3775290.43307</v>
+        <v>3776220.1428</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4204152.33648</v>
+        <v>4209106.974520001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4806810.34313</v>
+        <v>4860881.60484</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5356532.190450001</v>
+        <v>5497008.11385</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5842500.28703</v>
+        <v>6070648.03521</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6888240.462670001</v>
+        <v>6888240.46267</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7999301.86136</v>
+        <v>8038942.323969999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9375011.33743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9618247.326579999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9042483.535</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1183110.51016</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1656502.43625</v>
+        <v>1656379.02975</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2219180.022859999</v>
+        <v>2219408.80307</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2037241.33048</v>
+        <v>2036504.41451</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2282087.12316</v>
+        <v>2280872.47221</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2645449.58057</v>
+        <v>2623863.6672</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2975781.23597</v>
+        <v>2976820.70699</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2732892.27517</v>
+        <v>3005257.45601</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>4432571.5665</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6421358.00516</v>
+        <v>6398082.91351</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7449810.81287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7697480.98965</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5364140.781</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>802026.40433</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>792083.0980799999</v>
+        <v>792228.9785600001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>937995.2377000001</v>
+        <v>938120.1005299999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1142506.41705</v>
+        <v>1142513.3576</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1532234.85202</v>
+        <v>1532617.85771</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1941223.11377</v>
+        <v>1958645.64238</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3145505.37172</v>
+        <v>3190350.42711</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3653960.118869999</v>
+        <v>3762845.41055</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>176387530.43404</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11859638.26286</v>
+        <v>11874815.69383</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7192751.35825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7358561.19183</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11770759.513</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8370.920900000001</v>
@@ -1778,16 +1789,16 @@
         <v>32673.50168</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>37461.43818999999</v>
+        <v>37461.43819</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>48441.86076</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>47876.72114</v>
+        <v>47876.72113999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>67920.7205</v>
+        <v>68062.86448</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>86849.92554</v>
@@ -1796,16 +1807,21 @@
         <v>291889.79633</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>79769.53708999998</v>
+        <v>79769.53709</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>205141.46164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>207646.45611</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>9795.447</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1051.3657</v>
@@ -1820,7 +1836,7 @@
         <v>72940.52992</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>46605.54066000001</v>
+        <v>46605.54066</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>11292.27995</v>
@@ -1838,13 +1854,18 @@
         <v>199778.77272</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>204158.25712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>208440.06836</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>197275.927</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>76572.43103000001</v>
@@ -1853,37 +1874,42 @@
         <v>71890.43895</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>85734.58409999999</v>
+        <v>85746.70461000002</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>82160.78186</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>109223.85967</v>
+        <v>109229.36272</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>159977.6308</v>
+        <v>162866.44815</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>251578.15725</v>
+        <v>254705.08652</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>358762.5249900001</v>
+        <v>364922.93251</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>467299.6194</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>750062.5388</v>
+        <v>750704.86783</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>818324.0177800001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>905222.0344799999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>712657.2709999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11742.28944</v>
@@ -1898,31 +1924,36 @@
         <v>12748.99478</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>18229.18629</v>
+        <v>18231.10494</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>23636.53494</v>
+        <v>23699.53988</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>25099.58243</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>33470.11291</v>
+        <v>37304.01709</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>30779.28345</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>44762.68682</v>
+        <v>44857.68682000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>52137.75251000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>53598.14258</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>64784.885</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>20209.46584</v>
@@ -1940,28 +1971,33 @@
         <v>20309.3049</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>26196.10429</v>
+        <v>26327.5904</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>27734.02452</v>
+        <v>28254.46103</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>36496.89885000001</v>
+        <v>36596.89885000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>95436.56460000003</v>
+        <v>95436.5646</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>68970.75399</v>
+        <v>69229.65672999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>83633.88473999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>84505.5943</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>99888.018</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2415.19414</v>
@@ -1970,37 +2006,42 @@
         <v>2242.70258</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8232.253369999999</v>
+        <v>8232.25337</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>5709.65715</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>14985.68301</v>
+        <v>14987.74272</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>70995.56161</v>
+        <v>71003.6404</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>80037.72506</v>
+        <v>80066.15381</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>109855.97726</v>
+        <v>111685.42932</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>4211.265429999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7442.51991</v>
+        <v>7451.39945</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11508.33423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11549.87307</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>35103.483</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>422323.53569</v>
@@ -2009,37 +2050,42 @@
         <v>392109.82971</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>455305.82052</v>
+        <v>455338.05924</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>542566.49834</v>
+        <v>542566.5295599999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>816621.7171100001</v>
+        <v>816879.44763</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1027949.6156</v>
+        <v>1035046.61096</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1918030.65179</v>
+        <v>1940937.45972</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2130664.75561</v>
+        <v>2177552.33163</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>174288612.35178</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9137204.62621</v>
+        <v>9149688.374779999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4187046.31881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4226693.12981</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8822511.18</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>17680.27274</v>
@@ -2057,10 +2103,10 @@
         <v>52680.49126</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>91134.49634</v>
+        <v>91748.95581999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>91517.72125</v>
+        <v>92052.50299999998</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>83615.10012999999</v>
@@ -2074,32 +2120,37 @@
       <c r="M33" s="48" t="n">
         <v>266763.57642</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>213075.67</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>17927.11028</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>14787.55977</v>
+        <v>14933.44025</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>28777.41992</v>
+        <v>28853.43682</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>17499.14843</v>
+        <v>17504.46038</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>30224.76611</v>
+        <v>30271.3528</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>36645.1484</v>
+        <v>36985.9675</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>48164.24604</v>
+        <v>48520.98351</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>62803.26931</v>
@@ -2108,16 +2159,21 @@
         <v>111489.21888</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>217064.71531</v>
+        <v>217849.12824</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>95234.81116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>96368.51781999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>287790.486</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>223733.81857</v>
@@ -2126,76 +2182,86 @@
         <v>253684.00223</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>271406.58483</v>
+        <v>271411.07153</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>335426.20369</v>
+        <v>335427.80107</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>374912.44225</v>
+        <v>374981.64932</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>445519.0207000001</v>
+        <v>451797.88818</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>552595.33261</v>
+        <v>569824.12234</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>686473.86075</v>
+        <v>736547.81265</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>940486.1707500002</v>
+        <v>940486.17075</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1226968.75359</v>
+        <v>1227872.91175</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1268802.94384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1297773.79888</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1327877.146</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>632914.0410399999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>593765.80573</v>
+        <v>593765.8057299999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>942997.0809100001</v>
+        <v>943045.4898600001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>761112.4873800001</v>
+        <v>761113.9036</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1492913.22512</v>
+        <v>1493798.84591</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1653139.22055</v>
+        <v>1669195.17815</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2881887.569939999</v>
+        <v>2940331.39942</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3092102.60372</v>
+        <v>3168142.16732</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>175329009.81628</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10961513.20741</v>
+        <v>10970452.97287</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5741070.63358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5814656.56424</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11659139.31</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>45190.17326</v>
@@ -2204,40 +2270,45 @@
         <v>46982.24191</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>87805.06671</v>
+        <v>87805.06671000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>92009.28648000001</v>
+        <v>92009.28648</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>65646.99343999999</v>
+        <v>65760.58877</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>64631.77492</v>
+        <v>65954.07541</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>44954.08485</v>
+        <v>47567.32329</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>53253.38097999999</v>
+        <v>53933.78054000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>75327.75072</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>75460.87995</v>
+        <v>75489.07959000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>133995.49902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>134302.16293</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>127121.698</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>52701.75955999999</v>
+        <v>52701.75956000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>43432.61941</v>
@@ -2252,13 +2323,13 @@
         <v>90899.76303</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>100073.40912</v>
+        <v>100080.39412</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>112070.1771</v>
+        <v>115752.24704</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>145761.77754</v>
+        <v>161272.54732</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>150596.59531</v>
@@ -2267,13 +2338,18 @@
         <v>161516.11988</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>215346.42991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>217990.67166</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>244518.422</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6371.65637</v>
@@ -2288,13 +2364,13 @@
         <v>5763.367730000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5205.75173</v>
+        <v>5205.751730000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>83289.14164</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>94822.25029000001</v>
+        <v>94823.84947</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>158300.31444</v>
@@ -2303,58 +2379,68 @@
         <v>3585.24843</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3546.64492</v>
+        <v>3557.24835</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>3173.45393</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>45406.832</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>402454.1893099999</v>
+        <v>402454.18931</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>372081.57072</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>640706.3132999999</v>
+        <v>640750.2481800001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>412259.3180600001</v>
+        <v>412260.44209</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1152158.91002</v>
+        <v>1152840.5955</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1117180.29842</v>
+        <v>1127718.02008</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2274957.6285</v>
+        <v>2318782.09261</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2367185.48708</v>
+        <v>2417274.7555</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>174654521.22933</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10073480.5521</v>
+        <v>10080890.90585</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4685794.940239999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4745980.45128</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10484400.275</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>9433.667379999999</v>
+        <v>9433.667380000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>14329.53393</v>
@@ -2369,16 +2455,16 @@
         <v>23497.51387</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>94875.96094</v>
+        <v>95348.76394</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>89680.13923</v>
+        <v>90094.54422999998</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>87047.66972000001</v>
+        <v>87047.66972000002</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>50899.16001000001</v>
+        <v>50899.16001</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>105250.61237</v>
@@ -2386,50 +2472,60 @@
       <c r="M41" s="48" t="n">
         <v>277280.99053</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>212775.787</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>9808.26031</v>
+        <v>9808.260309999998</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>15604.72468</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>28975.66379</v>
+        <v>28978.61244</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>9197.496650000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>23424.63522</v>
+        <v>23477.57867</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>28791.19746</v>
+        <v>29372.87356</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>32343.09625</v>
+        <v>32585.76702</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>39986.62265</v>
+        <v>39979.08601</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>73710.7</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>217859.03228</v>
+        <v>218462.8617</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>91471.26221000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>92260.47922999998</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>221650.942</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>106954.33485</v>
@@ -2438,76 +2534,86 @@
         <v>100818.765</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>114406.51489</v>
+        <v>114408.04031</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>138855.53055</v>
+        <v>138855.82274</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>132079.65781</v>
+        <v>132117.05434</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>164297.43805</v>
+        <v>167431.9094</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>233060.19372</v>
+        <v>240725.57576</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>240567.35131</v>
+        <v>250334.01379</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>320369.13248</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>324399.36591</v>
+        <v>325286.1451300001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>334008.05774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>343668.35468</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>323265.354</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>675049.5792899999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>572563.1703699999</v>
+        <v>572563.1703699998</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>816832.45542</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>922623.9690999999</v>
+        <v>922887.7586599999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1057915.95708</v>
+        <v>1059333.31378</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1222469.77212</v>
+        <v>1241566.62811</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1674163.2744</v>
+        <v>1727218.52673</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2335934.78881</v>
+        <v>2384632.35392</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2753105.1943</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3379338.87464</v>
+        <v>3382265.60517</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4398083.16532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4520111.50671</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4127372.417</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>614849.63424</v>
@@ -2516,40 +2622,45 @@
         <v>524861.38691</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>689521.0614</v>
+        <v>689521.0614000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>849861.7754800001</v>
+        <v>850125.56504</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>950487.3791600001</v>
+        <v>951898.5678399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1142188.23848</v>
+        <v>1153963.91038</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1462830.01659</v>
+        <v>1499399.56847</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2090635.93983</v>
+        <v>2139322.87025</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2409673.34773</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2919416.65185</v>
+        <v>2922343.29611</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3957456.49204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4079008.97633</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3495472.28</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>60199.94505</v>
+        <v>60199.94504999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>47701.78346000001</v>
@@ -2558,118 +2669,133 @@
         <v>127311.39402</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>72762.19361999999</v>
+        <v>72762.19362000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>107428.57792</v>
+        <v>107434.74594</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>80281.53364000001</v>
+        <v>87602.71773</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>211333.25781</v>
+        <v>227818.95826</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>245298.84898</v>
+        <v>245309.48367</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>343431.84657</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>459922.22279</v>
+        <v>459922.30906</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>440626.67328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>441102.53038</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>631900.137</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>677173.2941599999</v>
+        <v>677173.29416</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1282256.55823</v>
+        <v>1282279.03221</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1397345.72423</v>
+        <v>1397650.95832</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1496011.29105</v>
+        <v>1495016.10985</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1263492.79298</v>
+        <v>1260358.17023</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1711063.70167</v>
+        <v>1671747.50332</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1565235.76335</v>
+        <v>1499621.20795</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>958815.0015100001</v>
+        <v>1215328.34532</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2737986.989959999</v>
+        <v>2737986.98996</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3940144.18597</v>
+        <v>3920180.0293</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4503408.372219999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4721274.110530001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1348388.567</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>171900.50671</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>379043.71368</v>
+        <v>379093.34269</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>178067.03482</v>
+        <v>178075.20412</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>224377.04118</v>
+        <v>224461.05917</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>351028.6044</v>
+        <v>351532.88135</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>494330.1579100001</v>
+        <v>499619.43736</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>401849.48262</v>
+        <v>424715.24859</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>576990.03039</v>
+        <v>596295.79597</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>655130.8879399999</v>
+        <v>655130.88794</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>738838.6275599999</v>
+        <v>741992.8552199999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1075249.25993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1099116.6424</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>991860.458</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4471.198810000001</v>
+        <v>4471.19881</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2898.842110000001</v>
+        <v>2898.84211</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>3654.7688</v>
@@ -2678,109 +2804,124 @@
         <v>3500.11863</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2644.94272</v>
+        <v>2645.74612</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6654.701779999999</v>
+        <v>6673.566150000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4969.99361</v>
+        <v>4989.513889999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>17107.47796</v>
+        <v>20546.78083</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>8717.995640000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9333.33245</v>
+        <v>9335.70055</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>28363.85045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>28388.74648</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>21672.995</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>167429.3079</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>376144.87157</v>
+        <v>376194.5005800001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>174412.26602</v>
+        <v>174420.43532</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>220876.92255</v>
+        <v>220960.94054</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>348383.66168</v>
+        <v>348887.13523</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>487675.45613</v>
+        <v>492945.87121</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>396879.48901</v>
+        <v>419725.7347</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>559882.55243</v>
+        <v>575749.01514</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>646412.8922999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>729505.2951099999</v>
+        <v>732657.15467</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1046885.40948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1070727.89592</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>970187.463</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>144779.44964</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>197403.73507</v>
+        <v>197558.77604</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>839438.67889</v>
+        <v>839456.92931</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>259509.72447</v>
+        <v>259623.83302</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>245165.39557</v>
+        <v>245401.15337</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>531845.36109</v>
+        <v>534216.24638</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>376671.4299099999</v>
+        <v>382180.94243</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>878163.42668</v>
+        <v>897234.4016999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>558971.4488599999</v>
+        <v>558971.44886</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>911492.07332</v>
+        <v>920161.0816500001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1467932.27027</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1493892.9511</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>764606.977</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2349.00344</v>
@@ -2792,16 +2933,16 @@
         <v>4061.65545</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4001.285509999999</v>
+        <v>4078.54312</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>6341.03995</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2204.26833</v>
+        <v>2732.02785</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1645.26832</v>
+        <v>1903.1822</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>4027.14453</v>
@@ -2810,16 +2951,21 @@
         <v>6584.24464</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5663.941740000001</v>
+        <v>5704.497240000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1648.51662</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1857.27974</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12275.913</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>9708.308140000001</v>
@@ -2834,184 +2980,207 @@
         <v>12166.7372</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10842.76014</v>
+        <v>10877.31648</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>22068.42032</v>
+        <v>22124.53927</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>17500.08951</v>
+        <v>17549.90957</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>19944.19904</v>
+        <v>23246.21561</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>61798.21936</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>31266.13492</v>
+        <v>31624.44147</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>53534.05909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>53785.82455</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24398.27</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>132722.13806</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>185188.59447</v>
+        <v>185343.63544</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>815790.26462</v>
+        <v>815808.51504</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>243341.70176</v>
+        <v>243378.5527</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>227981.59548</v>
+        <v>228182.79694</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>507572.6724399999</v>
+        <v>509359.6792599999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>357526.07208</v>
+        <v>362727.8506599999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>854192.08311</v>
+        <v>869961.0415599999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>490588.98486</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>874561.9966599999</v>
+        <v>882832.1429399999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1412749.69456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1438249.84681</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>727932.794</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>704294.35123</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1463896.53684</v>
+        <v>1463813.59886</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>735974.0801600001</v>
+        <v>736269.2331299999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1460878.60776</v>
+        <v>1459853.336</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1369356.00181</v>
+        <v>1366489.89821</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1673548.49849</v>
+        <v>1637150.6943</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1590413.81606</v>
+        <v>1542155.51411</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>657641.60522</v>
+        <v>914389.7395899999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2834146.429039999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3767490.74021</v>
+        <v>3742011.80287</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4110725.36188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4326497.80183</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1575642.048</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>224005.45111</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>296735.24143</v>
+        <v>296746.75993</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>357302.4778</v>
+        <v>357369.54321</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>383602.80052</v>
+        <v>383643.55167</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>447433.45539</v>
+        <v>447530.58953</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>521354.1573499999</v>
+        <v>521552.64127</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>593910.96554</v>
+        <v>596191.1996599999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>601399.2065100002</v>
+        <v>666423.2962400001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>854972.23795</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1283388.02584</v>
+        <v>1285388.97928</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1399866.41378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1455326.15881</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1132048.872</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>480288.9001199999</v>
+        <v>480288.90012</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1167161.29541</v>
+        <v>1167066.83893</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>378671.60236</v>
+        <v>378899.6899200001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1077275.80724</v>
+        <v>1076209.78433</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>921922.54642</v>
+        <v>918959.3086799999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1152194.34114</v>
+        <v>1115598.05303</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>996502.85052</v>
+        <v>945964.3144500002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>56242.39871000001</v>
+        <v>247966.44335</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1979174.19109</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2484102.71437</v>
+        <v>2456622.82359</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2710858.9481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2871171.64302</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>443593.176</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>23103</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>23082</v>
+        <v>23086</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23054</v>
+        <v>23059</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>22155</v>
+        <v>22174</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>21089</v>
+        <v>21134</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>20762</v>
+        <v>20849</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>20786</v>
+        <v>20988</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>21621</v>
+        <v>21782</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>22642</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>20504</v>
+        <v>22628</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>20545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>23233</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>24765</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>